--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Charts/2_Production Change.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Charts/2_Production Change.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Activities</t>
   </si>
@@ -22,28 +22,46 @@
     <t>Commodities</t>
   </si>
   <si>
-    <t>Crops</t>
-  </si>
-  <si>
-    <t>Cocoa</t>
-  </si>
-  <si>
-    <t>Livestock</t>
-  </si>
-  <si>
-    <t>Forestry</t>
-  </si>
-  <si>
-    <t>Fishing</t>
-  </si>
-  <si>
-    <t>Oil</t>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Other crops</t>
+  </si>
+  <si>
+    <t>Other livestock</t>
+  </si>
+  <si>
+    <t>Poultry</t>
   </si>
   <si>
     <t>Mining</t>
   </si>
   <si>
-    <t>Manufacturing</t>
+    <t>Food and beverages</t>
+  </si>
+  <si>
+    <t>Grain milling</t>
+  </si>
+  <si>
+    <t>Other manufacturing</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>Wood and paper</t>
+  </si>
+  <si>
+    <t>Petroleum</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Metals and metal products</t>
+  </si>
+  <si>
+    <t>Machinery and equipment</t>
   </si>
   <si>
     <t>Energy</t>
@@ -55,37 +73,10 @@
     <t>Construction</t>
   </si>
   <si>
-    <t>Trade and Repair</t>
+    <t>Other services</t>
   </si>
   <si>
     <t>Transport and Storage</t>
-  </si>
-  <si>
-    <t>Hotels and Restaurants</t>
-  </si>
-  <si>
-    <t>Information and Communication</t>
-  </si>
-  <si>
-    <t>Finance and Insurance</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
-    <t>Business Services</t>
-  </si>
-  <si>
-    <t>Public Administration</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Health and Social Work</t>
-  </si>
-  <si>
-    <t>Other Services</t>
   </si>
 </sst>
 </file>
@@ -443,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>-734.2672217900545</v>
+        <v>0.01287633803030985</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -473,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>-0.0009397817220815341</v>
+        <v>0.04639275891531724</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -484,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-5.51285363568968</v>
+        <v>0.0001365521329717012</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -495,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-3.065383171707708</v>
+        <v>3.486841023914167e-06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -506,7 +497,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.001091257420512193</v>
+        <v>0.01938770244305488</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -517,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4.486977448626931</v>
+        <v>0.000932208335143514</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -528,7 +519,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-0.2153780531079974</v>
+        <v>0.0001305568011957803</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -539,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-22.70982722222834</v>
+        <v>0.002595413712697336</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -550,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>16.08236777387538</v>
+        <v>0.0001654457091717632</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -561,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.8924829288353067</v>
+        <v>0.07683244693362212</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -572,7 +563,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>-0.1595995129609946</v>
+        <v>0.01973083944176324</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -583,7 +574,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-0.06390542993904091</v>
+        <v>0.02794710091575325</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -594,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.1678136054215429</v>
+        <v>0.02721135257456808</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -605,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.08473657181457384</v>
+        <v>1.072474247956393</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -616,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.05828432448834064</v>
+        <v>0.02509226991060132</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -627,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.16505197049446</v>
+        <v>0.002077466894661484</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -638,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-0.04861574864298746</v>
+        <v>0.001900324481539428</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -649,7 +640,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.1246374455604382</v>
+        <v>0.03142763665528037</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -660,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.00260779707605252</v>
+        <v>0.02121491424986743</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -668,277 +659,211 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>-0.07296312905054947</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.01365095922528781</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>-1.556086283987497</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0498850612239039</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>0.007941388344079314</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001526557016404695</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>-3.127566532279161</v>
+        <v>4.867327106694574e-06</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>-0.001437376783542277</v>
+        <v>0.02343736547481967</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>-6.004082700819708</v>
+        <v>0.004907252421617159</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>-3.293227469205704</v>
+        <v>0.000227042090955365</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.001371713992739387</v>
+        <v>0.01329449891272816</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>5.551394468582657</v>
+        <v>0.0005805739874631399</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>-0.2271189671082539</v>
+        <v>0.1101130234719676</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>-90.03378761101339</v>
+        <v>0.0309204563163803</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>16.08241810902109</v>
+        <v>0.1534528952270193</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.8924829288353067</v>
+        <v>0.1772020097123459</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>-0.1595995129646326</v>
+        <v>227.979997715669</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>-0.06567322956834687</v>
+        <v>0.02509234844546882</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.1960992259773775</v>
+        <v>0.002077466894661484</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.1026840876893402</v>
+        <v>0.001900324477901449</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0.05828432448743115</v>
+        <v>0.03817726763372775</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1.222301909589078</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>-0.04861574864298746</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0.2853787374733656</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0.003069189275265671</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>-0.07296312905054947</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>-1.562042976665907</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0.008821511003588967</v>
+        <v>0.02479076861709473</v>
       </c>
     </row>
   </sheetData>
